--- a/lung_cancer_prediction_dataset 數值統計摘要.xlsx
+++ b/lung_cancer_prediction_dataset 數值統計摘要.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\芳珊\202504_Python人工智慧與數據分析\Lung-Cancer-Risk-in-25-Countries_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shan\power-bi_advanced-courses\Lung-Cancer-Risk-in-25-Countries_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2566BADB-7071-49F2-A053-89C02B547FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959F2ACB-2F11-4E91-B2B8-39A1782E860A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="統計摘要" sheetId="1" r:id="rId1"/>
+    <sheet name="說明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -231,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +269,13 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,10 +309,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -316,9 +326,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,6 +343,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>334613</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7ED1FF-B555-489C-F5EB-FD8405091651}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="200025"/>
+          <a:ext cx="8869013" cy="3839111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438873</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EE1EFE-3FCC-F3F5-8B27-DE68645530E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="4457700"/>
+          <a:ext cx="5182323" cy="4553585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,20 +728,20 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -768,7 +873,7 @@
       <c r="D5">
         <v>20</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5">
@@ -797,7 +902,7 @@
       <c r="D6">
         <v>36</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6">
@@ -826,7 +931,7 @@
       <c r="D7">
         <v>53</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7">
@@ -903,6 +1008,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -910,11 +1016,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB95CBB2-44C7-4EB6-A953-DBC72763780C}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
   </cols>
@@ -959,5 +1065,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>